--- a/2021-03-23 data_kreeften_vegetatie_2020_HHSK_CoP_Ecologische_data_analyse.xlsx
+++ b/2021-03-23 data_kreeften_vegetatie_2020_HHSK_CoP_Ecologische_data_analyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\CoP EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66540CD-AED8-4485-AAAF-3342D38D2A45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466EC9E9-CB05-4C11-9350-0631971B2EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="6" r:id="rId1"/>
@@ -1932,9 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B960CDB4-2FEC-4E66-8E24-5C0ECCD78B45}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2362,7 +2360,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4288,7 +4286,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14319,7 +14317,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57948,9 +57946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
